--- a/data/trans_bre/P16B03-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16B03-Clase-trans_bre.xlsx
@@ -642,22 +642,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-33,03; 21,1</t>
+          <t>-34,7; 25,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14,67; 100,0</t>
+          <t>10,54; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-51,06; 0,0</t>
+          <t>-53,52; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-40,42; 35,4</t>
+          <t>-41,35; 43,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-51,06; 0,0</t>
+          <t>-53,52; 0,0</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-33,26; 85,55</t>
+          <t>-35,73; 79,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-22,47; 74,97</t>
+          <t>-19,95; 80,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 85,52</t>
+          <t>-1,01; 85,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-34,38; —</t>
+          <t>-36,66; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-24,49; 518,9</t>
+          <t>-21,56; 557,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-4,56; —</t>
+          <t>-5,24; —</t>
         </is>
       </c>
     </row>
@@ -802,7 +802,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-22,63; 49,48</t>
+          <t>-22,6; 47,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -812,12 +812,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 85,15</t>
+          <t>0,0; 84,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-25,24; 144,05</t>
+          <t>-25,76; 132,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 573,5</t>
+          <t>0,0; 553,74</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,93; 34,97</t>
+          <t>-8,09; 36,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,29; 33,2</t>
+          <t>-6,8; 35,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-13,92; 23,77</t>
+          <t>-14,46; 21,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,42; 59,33</t>
+          <t>-8,39; 68,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-8,45; 53,38</t>
+          <t>-6,9; 56,27</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-14,21; 32,35</t>
+          <t>-15,01; 29,38</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-18,12; 43,65</t>
+          <t>-18,65; 42,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,03; 55,54</t>
+          <t>-9,86; 53,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 66,98</t>
+          <t>-3,59; 68,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-18,78; 80,05</t>
+          <t>-21,14; 75,28</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,04; 143,76</t>
+          <t>-9,86; 139,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 219,47</t>
+          <t>-3,6; 234,68</t>
         </is>
       </c>
     </row>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-8,69; 98,05</t>
+          <t>-9,0; 94,51</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-8,7; —</t>
+          <t>-9,0; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,7; 24,92</t>
+          <t>2,82; 25,67</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,82; 31,78</t>
+          <t>2,3; 31,5</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,76; 29,21</t>
+          <t>0,56; 28,7</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,07; 37,69</t>
+          <t>3,25; 40,41</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,08; 49,79</t>
+          <t>2,58; 49,85</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,19; 48,51</t>
+          <t>0,65; 48,03</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B03-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16B03-Clase-trans_bre.xlsx
@@ -994,7 +994,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
